--- a/outputs-HGR-r202/test-g__Dialister_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-g__Dialister_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Row</t>
   </si>
@@ -38,6 +38,15 @@
   </si>
   <si>
     <t>even_MAG-GUT55383.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT66378.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT66382.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT73491.fa</t>
   </si>
   <si>
     <t>1-s__Dialister hominis</t>
@@ -127,7 +136,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O11"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="true"/>
@@ -152,46 +161,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">
@@ -523,6 +532,147 @@
         <v>4</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>3.5220911882980973e-07</v>
+      </c>
+      <c r="C9">
+        <v>0.0065206055107568722</v>
+      </c>
+      <c r="D9">
+        <v>0.7164566678164962</v>
+      </c>
+      <c r="E9">
+        <v>0.026339518514640385</v>
+      </c>
+      <c r="F9">
+        <v>0.011552394360827719</v>
+      </c>
+      <c r="G9">
+        <v>0.080287857347321898</v>
+      </c>
+      <c r="H9">
+        <v>0.045129981086099495</v>
+      </c>
+      <c r="I9">
+        <v>0.055848376996078725</v>
+      </c>
+      <c r="J9">
+        <v>0.00070240202629557583</v>
+      </c>
+      <c r="K9">
+        <v>4.567990561181193e-07</v>
+      </c>
+      <c r="L9">
+        <v>3.5271023518366583e-06</v>
+      </c>
+      <c r="M9">
+        <v>0.0048118542178985681</v>
+      </c>
+      <c r="N9">
+        <v>0.052346006013057729</v>
+      </c>
+      <c r="O9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2.9910401039610256e-05</v>
+      </c>
+      <c r="C10">
+        <v>0.005205312734521377</v>
+      </c>
+      <c r="D10">
+        <v>0.68072569422246965</v>
+      </c>
+      <c r="E10">
+        <v>0.0051770237568923624</v>
+      </c>
+      <c r="F10">
+        <v>0.051185328025355928</v>
+      </c>
+      <c r="G10">
+        <v>0.04192379100934495</v>
+      </c>
+      <c r="H10">
+        <v>0.058553658925756889</v>
+      </c>
+      <c r="I10">
+        <v>0.06613999559979955</v>
+      </c>
+      <c r="J10">
+        <v>0.00016440283182781238</v>
+      </c>
+      <c r="K10">
+        <v>1.097214709881074e-05</v>
+      </c>
+      <c r="L10">
+        <v>7.7568238768076477e-05</v>
+      </c>
+      <c r="M10">
+        <v>0.027333748951584674</v>
+      </c>
+      <c r="N10">
+        <v>0.063472593155540311</v>
+      </c>
+      <c r="O10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>7.92863101629644e-07</v>
+      </c>
+      <c r="C11">
+        <v>0.016075048245767751</v>
+      </c>
+      <c r="D11">
+        <v>0.26930974835173238</v>
+      </c>
+      <c r="E11">
+        <v>0.22866694485117925</v>
+      </c>
+      <c r="F11">
+        <v>0.042683835539053278</v>
+      </c>
+      <c r="G11">
+        <v>0.043372667557621238</v>
+      </c>
+      <c r="H11">
+        <v>0.075979587921522526</v>
+      </c>
+      <c r="I11">
+        <v>0.12521100523826212</v>
+      </c>
+      <c r="J11">
+        <v>0.00049922530435382356</v>
+      </c>
+      <c r="K11">
+        <v>6.4612467126811808e-07</v>
+      </c>
+      <c r="L11">
+        <v>6.5354524802521354e-06</v>
+      </c>
+      <c r="M11">
+        <v>0.0025166213800922846</v>
+      </c>
+      <c r="N11">
+        <v>0.19567734117016231</v>
+      </c>
+      <c r="O11">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>